--- a/総合テスト/6. シナリオテスト（管理者＆ユーザー連携）/ST-SCA-005.xlsx
+++ b/総合テスト/6. シナリオテスト（管理者＆ユーザー連携）/ST-SCA-005.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://avantg-my.sharepoint.com/personal/aoi_yaegashi_avantcorp_com/Documents/ドキュメント/研修/IT研修/システム開発模擬演習/総合テスト/6 シナリオ/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki.nishijima\Downloads\workspace\teamF\総合テスト\6. シナリオテスト（管理者＆ユーザー連携）\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="13" documentId="11_AD4D066CA252ABDACC10480FD913EE5A73EEDF63" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{7E82DD89-795E-40FB-831D-3E06BB365F04}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDEC9444-633A-456D-8A82-A3301CADDB43}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9000" yWindow="380" windowWidth="10040" windowHeight="10830" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="実施前" sheetId="1" r:id="rId1"/>
@@ -216,6 +216,50 @@
     </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>136</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>374026</xdr:colOff>
+      <xdr:row>178</xdr:row>
+      <xdr:rowOff>110348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="図 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DDED3A42-CFA9-F03C-CF24-FDDAB493F48F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1326444" y="30705778"/>
+          <a:ext cx="18281026" cy="9593014"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -257,6 +301,50 @@
         <a:xfrm>
           <a:off x="1326444" y="903111"/>
           <a:ext cx="17801877" cy="9382039"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>29</xdr:col>
+      <xdr:colOff>374026</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>110348</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="図 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F881CC52-E1C1-A0CE-936F-0A40D5CC57FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1326444" y="10611556"/>
+          <a:ext cx="18281026" cy="9593014"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -533,8 +621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="B134" zoomScale="45" workbookViewId="0">
-      <selection activeCell="C94" sqref="C94"/>
+    <sheetView topLeftCell="B141" zoomScale="45" workbookViewId="0">
+      <selection activeCell="C137" sqref="C137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -550,8 +638,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{76CA2F61-3C8C-462F-BA0A-0EF8CFB1429C}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="45" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView tabSelected="1" topLeftCell="A41" zoomScale="45" workbookViewId="0">
+      <selection activeCell="AG65" sqref="AG65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
